--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4104F1-E571-43C9-858C-123B00C15E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53CD1EA-25F9-42D1-8D84-DE6072F84097}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Chapter</t>
   </si>
@@ -63,6 +63,14 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>add subheader 'Literature Mapping'
+	- change image/figure caption</t>
+  </si>
+  <si>
+    <t>remove description of chapter
+	- add 2.2 Related Lit sub header</t>
   </si>
 </sst>
 </file>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,6 +472,37 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53CD1EA-25F9-42D1-8D84-DE6072F84097}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424CB9C-8BBF-4BDC-B130-E84A988D3206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Chapter</t>
   </si>
@@ -71,6 +71,27 @@
   <si>
     <t>remove description of chapter
 	- add 2.2 Related Lit sub header</t>
+  </si>
+  <si>
+    <t>move Present State and Proposed Documents Structure after theories and concept</t>
+  </si>
+  <si>
+    <t>Remove paragraph about Satoshi Nakamoto</t>
+  </si>
+  <si>
+    <t>use 3rd person</t>
+  </si>
+  <si>
+    <t>add table descriptions</t>
+  </si>
+  <si>
+    <t>not sure what to dooo???</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>NOT OK</t>
   </si>
 </sst>
 </file>
@@ -391,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,7 +522,88 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4424CB9C-8BBF-4BDC-B130-E84A988D3206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6BA8B4-9CF1-4806-81F8-BB2313E02580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Chapter</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>NOT OK</t>
+  </si>
+  <si>
+    <t>use past tense on entire chapter
+	- remove description of chapter</t>
+  </si>
+  <si>
+    <t>remove 'The study will be focused on'</t>
+  </si>
+  <si>
+    <t>transfer image to appendix</t>
+  </si>
+  <si>
+    <t>remove title</t>
+  </si>
+  <si>
+    <t>remove chapter description
+	- tense
+	- Create table of functionality</t>
   </si>
 </sst>
 </file>
@@ -412,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,6 +623,115 @@
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6BA8B4-9CF1-4806-81F8-BB2313E02580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D4994-32F9-424E-8C28-B0ED2A6421CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
   <si>
     <t>Chapter</t>
   </si>
@@ -110,6 +110,19 @@
     <t>remove chapter description
 	- tense
 	- Create table of functionality</t>
+  </si>
+  <si>
+    <t>tense
+plus not sure comment on Sample</t>
+  </si>
+  <si>
+    <t>tabulate result</t>
+  </si>
+  <si>
+    <t>remove 'We'</t>
+  </si>
+  <si>
+    <t>discuss results on scans</t>
   </si>
 </sst>
 </file>
@@ -430,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,14 +735,137 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
       <c r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>99</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>104</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6D4994-32F9-424E-8C28-B0ED2A6421CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16191FEA-28E3-4C68-A742-E4F1863E682D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Chapter</t>
   </si>
@@ -123,6 +123,16 @@
   </si>
   <si>
     <t>discuss results on scans</t>
+  </si>
+  <si>
+    <t>remove the domain of study</t>
+  </si>
+  <si>
+    <t>appendices</t>
+  </si>
+  <si>
+    <t>remove List
+not sure on other comment</t>
   </si>
 </sst>
 </file>
@@ -443,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +762,9 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
       <c r="C22">
         <v>71</v>
       </c>
@@ -762,6 +775,9 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>77</v>
@@ -774,6 +790,9 @@
       <c r="A24" t="s">
         <v>17</v>
       </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
       <c r="C24">
         <v>78</v>
       </c>
@@ -785,6 +804,9 @@
       <c r="A25" t="s">
         <v>17</v>
       </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
       <c r="C25">
         <v>79</v>
       </c>
@@ -796,6 +818,9 @@
       <c r="A26" t="s">
         <v>8</v>
       </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
       <c r="C26">
         <v>80</v>
       </c>
@@ -807,6 +832,9 @@
       <c r="A27" t="s">
         <v>8</v>
       </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
       <c r="C27">
         <v>90</v>
       </c>
@@ -818,6 +846,9 @@
       <c r="A28" t="s">
         <v>8</v>
       </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
       <c r="C28">
         <v>91</v>
       </c>
@@ -826,6 +857,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
       <c r="C29">
         <v>99</v>
       </c>
@@ -837,6 +874,9 @@
       <c r="A30" t="s">
         <v>8</v>
       </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
       <c r="C30">
         <v>101</v>
       </c>
@@ -845,6 +885,12 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
       <c r="C31">
         <v>103</v>
       </c>
@@ -853,6 +899,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
       <c r="C32">
         <v>104</v>
       </c>
@@ -860,12 +912,43 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
       <c r="C33">
         <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>109</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16191FEA-28E3-4C68-A742-E4F1863E682D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F95B3E-3092-4A70-ACCA-D09F738DE97E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,7 +886,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B33">
         <v>5</v>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F95B3E-3092-4A70-ACCA-D09F738DE97E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C8676-9AE2-4091-B99D-35ADDF6010A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,7 +858,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>5</v>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426C8676-9AE2-4091-B99D-35ADDF6010A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDD1CC-822C-4372-BFC0-7929FCF6AAA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Chapter</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>tense</t>
-  </si>
-  <si>
-    <t>NOT OK</t>
   </si>
   <si>
     <t>use past tense on entire chapter
@@ -455,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +617,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -657,7 +654,7 @@
         <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -671,12 +668,12 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -685,7 +682,7 @@
         <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -741,7 +738,7 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -755,7 +752,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -788,7 +785,7 @@
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>5</v>
@@ -797,12 +794,12 @@
         <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -853,7 +850,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -867,7 +864,7 @@
         <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -881,7 +878,7 @@
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -895,7 +892,7 @@
         <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -909,7 +906,7 @@
         <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,7 +920,7 @@
         <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,18 +934,18 @@
         <v>109</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35">
         <v>110</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
+++ b/jeng/Capstone 2 Docs/Chapters/Grammarian Feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\capstone\jeng\Capstone 2 Docs\Chapters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DDD1CC-822C-4372-BFC0-7929FCF6AAA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315A28C0-56C6-43CB-B8DA-2B8AFF389280}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
